--- a/reports/e5.xlsx
+++ b/reports/e5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>TinkerPro IT</t>
   </si>
@@ -62,31 +62,28 @@
     <t>Serial No: 9995</t>
   </si>
   <si>
-    <t>Machine Name: Damnation</t>
+    <t>Machine Name: DESKTOP-VJCK8A2</t>
   </si>
   <si>
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: July 20, 2024 05:49:33 PM</t>
+    <t>Date and Time Generated: July 30, 2024 04:08:07 PM</t>
   </si>
   <si>
     <t>User ID: A003</t>
   </si>
   <si>
-    <t>July 17, 2024</t>
-  </si>
-  <si>
-    <t>MARIS  RACAL</t>
-  </si>
-  <si>
-    <t>JONIE MOMA CHUP</t>
-  </si>
-  <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>00000008</t>
+    <t>July 30, 2024</t>
+  </si>
+  <si>
+    <t>JULIA MONTES</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>00000004</t>
   </si>
 </sst>
 </file>
@@ -552,10 +549,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A16" sqref="A16:J16"/>
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -715,36 +712,48 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3">
-        <v>311455</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16">
+        <v>63124579</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>64.0</v>
-      </c>
+      <c r="H16">
+        <v>140.0</v>
+      </c>
+      <c r="I16">
+        <v>6.25</v>
+      </c>
+      <c r="J16">
+        <v>133.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/reports/e5.xlsx
+++ b/reports/e5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>TinkerPro IT</t>
   </si>
@@ -68,22 +68,10 @@
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: July 30, 2024 04:08:07 PM</t>
-  </si>
-  <si>
-    <t>User ID: A003</t>
-  </si>
-  <si>
-    <t>July 30, 2024</t>
-  </si>
-  <si>
-    <t>JULIA MONTES</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>00000004</t>
+    <t>Date and Time Generated: August 8, 2024 05:38:00 PM</t>
+  </si>
+  <si>
+    <t>User ID: A0003</t>
   </si>
 </sst>
 </file>
@@ -549,10 +537,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A17" sqref="A17:J17"/>
+      <selection activeCell="A16" sqref="A16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -712,48 +700,16 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>63124579</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16">
-        <v>140.0</v>
-      </c>
-      <c r="I16">
-        <v>6.25</v>
-      </c>
-      <c r="J16">
-        <v>133.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
